--- a/Doc/数据.xlsx
+++ b/Doc/数据.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF0B92F-ED5A-47FC-8788-E264B729CA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="药方种类" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,9 +16,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方物品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方物品2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方物品3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药性元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可附加元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可附加元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药方种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟婆汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以重置天赋点数，洗点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌打损伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +111,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,9 +158,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -69,6 +177,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -117,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +261,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,6 +313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,15 +505,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="7" max="7" width="19.36328125" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="25.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -376,12 +733,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -390,12 +747,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
